--- a/custom sim/accumulator_sims4.xlsx
+++ b/custom sim/accumulator_sims4.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ddc151335309a76/Documents/GitHub/FEBSim/custom sim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_BD3E212F701092474A3C34D708398015D903247D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FCE6116-2E73-4C1A-8E23-AFC7272A2FC6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3582" yWindow="2706" windowWidth="19458" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Pack Config</t>
   </si>
@@ -49,26 +68,29 @@
     <t>8.68</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>1677.305860488693</t>
-  </si>
-  <si>
-    <t>6.774428000995521</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1662.9843765776907</t>
+  </si>
+  <si>
+    <t>7.3091987645506835</t>
+  </si>
+  <si>
+    <t>Average Laptime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,13 +138,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -131,13 +167,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +219,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -209,6 +253,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -243,9 +288,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,14 +464,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +498,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -475,6 +526,10 @@
       </c>
       <c r="H2" t="s">
         <v>15</v>
+      </c>
+      <c r="I2">
+        <f>G2/22</f>
+        <v>75.590198935349548</v>
       </c>
     </row>
   </sheetData>
